--- a/simulation_data/iterative_algorithm/i_error_level_13_percent_water_40.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_13_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.64797068142936</v>
+        <v>90.90829390464785</v>
       </c>
       <c r="D2" t="n">
-        <v>16.47441385119609</v>
+        <v>15.36393724097724</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.13902425171385</v>
+        <v>86.27798198039629</v>
       </c>
       <c r="D3" t="n">
-        <v>19.27307316069691</v>
+        <v>14.80161218464519</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.30144067620478</v>
+        <v>85.39177355942255</v>
       </c>
       <c r="D4" t="n">
-        <v>15.17602226578957</v>
+        <v>17.72741970614502</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.0656770930088</v>
+        <v>84.9434658708462</v>
       </c>
       <c r="D5" t="n">
-        <v>16.59754778253858</v>
+        <v>17.47712630620183</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.43238325599697</v>
+        <v>85.63926256243694</v>
       </c>
       <c r="D6" t="n">
-        <v>18.66161127707944</v>
+        <v>17.30042738011062</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.52765496429771</v>
+        <v>85.50303829441624</v>
       </c>
       <c r="D7" t="n">
-        <v>17.18053526941192</v>
+        <v>16.43279448195686</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82.83555232963437</v>
+        <v>84.32104399100874</v>
       </c>
       <c r="D8" t="n">
-        <v>16.7058507936242</v>
+        <v>16.41809871749972</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.24919279445413</v>
+        <v>84.53272175129761</v>
       </c>
       <c r="D9" t="n">
-        <v>17.32102091939548</v>
+        <v>14.37295686489597</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.56280347032855</v>
+        <v>83.05304740666844</v>
       </c>
       <c r="D10" t="n">
-        <v>16.46507997981495</v>
+        <v>16.25286276769102</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>79.28429445351465</v>
+        <v>79.47666161497608</v>
       </c>
       <c r="D11" t="n">
-        <v>19.22753705455455</v>
+        <v>19.83959225416163</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.86878162140644</v>
+        <v>77.62271071804075</v>
       </c>
       <c r="D12" t="n">
-        <v>15.07832096670076</v>
+        <v>17.69966632768531</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.73808587486728</v>
+        <v>78.07541572883744</v>
       </c>
       <c r="D13" t="n">
-        <v>17.88749652657073</v>
+        <v>16.85746456292107</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.59631030223161</v>
+        <v>78.95378207603746</v>
       </c>
       <c r="D14" t="n">
-        <v>15.01278212721208</v>
+        <v>17.49742443234493</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>75.448965958375</v>
+        <v>79.52037016050105</v>
       </c>
       <c r="D15" t="n">
-        <v>16.63997675498609</v>
+        <v>16.25435069600607</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.98903510152567</v>
+        <v>76.18080654269099</v>
       </c>
       <c r="D16" t="n">
-        <v>15.72051315571088</v>
+        <v>14.44781841479933</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>73.99614622868516</v>
+        <v>75.36899351140413</v>
       </c>
       <c r="D17" t="n">
-        <v>15.10079937974615</v>
+        <v>15.86207380159146</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.299959374406</v>
+        <v>73.94860486138288</v>
       </c>
       <c r="D18" t="n">
-        <v>16.01133815037047</v>
+        <v>16.83805696435369</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.52271978333478</v>
+        <v>71.36683542839864</v>
       </c>
       <c r="D19" t="n">
-        <v>15.86845431391855</v>
+        <v>15.88708591214349</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.17962683819027</v>
+        <v>73.1543887156308</v>
       </c>
       <c r="D20" t="n">
-        <v>15.06555430527251</v>
+        <v>15.34174538853121</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.23359482351717</v>
+        <v>69.41166495633823</v>
       </c>
       <c r="D21" t="n">
-        <v>16.81929329761821</v>
+        <v>17.35875058611219</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.64878936938513</v>
+        <v>70.58727503048335</v>
       </c>
       <c r="D22" t="n">
-        <v>17.28062216311143</v>
+        <v>15.95408346555448</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.78209133057636</v>
+        <v>66.20939354076555</v>
       </c>
       <c r="D23" t="n">
-        <v>17.61084281214728</v>
+        <v>17.63379445590954</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.57991718785094</v>
+        <v>66.28846534600765</v>
       </c>
       <c r="D24" t="n">
-        <v>16.21354986689268</v>
+        <v>16.40179500871733</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.82576320552685</v>
+        <v>68.42623637178683</v>
       </c>
       <c r="D25" t="n">
-        <v>18.82776205805591</v>
+        <v>17.7514236472056</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.2995183291273</v>
+        <v>67.11769951581822</v>
       </c>
       <c r="D26" t="n">
-        <v>16.72555887526942</v>
+        <v>17.12115725283335</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.12907723417464</v>
+        <v>63.72996804710663</v>
       </c>
       <c r="D27" t="n">
-        <v>17.72078310813191</v>
+        <v>17.13682179399336</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>67.60761918131492</v>
+        <v>63.20981454174007</v>
       </c>
       <c r="D28" t="n">
-        <v>15.90107719183953</v>
+        <v>17.82765527673759</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.4417428637102</v>
+        <v>63.60463473215207</v>
       </c>
       <c r="D29" t="n">
-        <v>17.08605522825696</v>
+        <v>15.84346252261673</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>66.14348548721385</v>
+        <v>61.24485658817015</v>
       </c>
       <c r="D30" t="n">
-        <v>18.17824248761622</v>
+        <v>15.99122786736487</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>59.87717406312806</v>
+        <v>62.65138730767322</v>
       </c>
       <c r="D31" t="n">
-        <v>17.19986571412843</v>
+        <v>17.28565944108918</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.83899004361408</v>
+        <v>62.44923133802704</v>
       </c>
       <c r="D32" t="n">
-        <v>18.52775445395821</v>
+        <v>15.92833701034757</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.31825319658402</v>
+        <v>54.90784563347221</v>
       </c>
       <c r="D33" t="n">
-        <v>17.10376254415801</v>
+        <v>15.50573063564393</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.1355148931848</v>
+        <v>58.81023674814301</v>
       </c>
       <c r="D34" t="n">
-        <v>17.73734594099193</v>
+        <v>14.84906382831038</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>59.28684972419391</v>
+        <v>58.10257727139619</v>
       </c>
       <c r="D35" t="n">
-        <v>15.74074402833633</v>
+        <v>20.13515883564582</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.15426418655986</v>
+        <v>57.52781030649978</v>
       </c>
       <c r="D36" t="n">
-        <v>15.64078445389144</v>
+        <v>15.92438266353525</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>53.75728105823023</v>
+        <v>56.82814018824483</v>
       </c>
       <c r="D37" t="n">
-        <v>17.62004516609018</v>
+        <v>16.9001793829225</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.60672717929106</v>
+        <v>51.85295961995354</v>
       </c>
       <c r="D38" t="n">
-        <v>18.79283009364017</v>
+        <v>17.62572679557272</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.7467174891049</v>
+        <v>50.84918274195752</v>
       </c>
       <c r="D39" t="n">
-        <v>18.97716976091175</v>
+        <v>16.80900188344562</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.52335530504233</v>
+        <v>49.88712041974944</v>
       </c>
       <c r="D40" t="n">
-        <v>17.80792508512017</v>
+        <v>17.67452495507758</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.74237554755261</v>
+        <v>52.43165395138197</v>
       </c>
       <c r="D41" t="n">
-        <v>18.69072284056817</v>
+        <v>18.29904538457128</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.56853625454796</v>
+        <v>51.6598098587489</v>
       </c>
       <c r="D42" t="n">
-        <v>17.90409065208401</v>
+        <v>16.30203370217601</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.42269569467542</v>
+        <v>45.93370580973492</v>
       </c>
       <c r="D43" t="n">
-        <v>17.49152859655014</v>
+        <v>15.73432421956765</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.90278927368367</v>
+        <v>47.87530143943786</v>
       </c>
       <c r="D44" t="n">
-        <v>18.21960326856115</v>
+        <v>17.27854757182612</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.37171619838347</v>
+        <v>46.43232752680488</v>
       </c>
       <c r="D45" t="n">
-        <v>17.77261107849125</v>
+        <v>18.0404879813512</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>48.6925008963053</v>
+        <v>46.38003907434726</v>
       </c>
       <c r="D46" t="n">
-        <v>19.25857224016361</v>
+        <v>15.22345817136216</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.07679839849452</v>
+        <v>47.02000037453983</v>
       </c>
       <c r="D47" t="n">
-        <v>16.38879713606538</v>
+        <v>15.73648082485404</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.64794945554588</v>
+        <v>43.15743307412873</v>
       </c>
       <c r="D48" t="n">
-        <v>17.12670225247192</v>
+        <v>16.05094358202728</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.55440049719502</v>
+        <v>39.58772638068631</v>
       </c>
       <c r="D49" t="n">
-        <v>17.55277449528966</v>
+        <v>17.72382357149981</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.56891949805852</v>
+        <v>41.59759078064035</v>
       </c>
       <c r="D50" t="n">
-        <v>16.39100183188856</v>
+        <v>15.32935366660057</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>43.52542832823137</v>
+        <v>43.32846564694957</v>
       </c>
       <c r="D51" t="n">
-        <v>18.71152858927612</v>
+        <v>17.37811831087629</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.47139642544226</v>
+        <v>41.07898140466451</v>
       </c>
       <c r="D52" t="n">
-        <v>16.18501215947055</v>
+        <v>17.40727321381615</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.68826604801082</v>
+        <v>39.33131035978187</v>
       </c>
       <c r="D53" t="n">
-        <v>15.22347486400411</v>
+        <v>16.13313388810981</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.21610014170483</v>
+        <v>40.50725345814823</v>
       </c>
       <c r="D54" t="n">
-        <v>16.45427942844749</v>
+        <v>15.85698340016626</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.13793032396406</v>
+        <v>36.22509700588196</v>
       </c>
       <c r="D55" t="n">
-        <v>17.83935790876488</v>
+        <v>15.91925096214809</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.28801800591695</v>
+        <v>34.80556946201146</v>
       </c>
       <c r="D56" t="n">
-        <v>16.04137706313009</v>
+        <v>17.77904423928629</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.97841158382491</v>
+        <v>33.09215547870092</v>
       </c>
       <c r="D57" t="n">
-        <v>14.95122481188245</v>
+        <v>17.16917722336127</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>38.27994173743893</v>
+        <v>32.45005454691503</v>
       </c>
       <c r="D58" t="n">
-        <v>17.44189389922455</v>
+        <v>17.65194387506141</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.60694223218402</v>
+        <v>31.09421321041048</v>
       </c>
       <c r="D59" t="n">
-        <v>17.76297319906974</v>
+        <v>17.97673816805292</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>29.51656091569383</v>
+        <v>29.07428610533655</v>
       </c>
       <c r="D60" t="n">
-        <v>16.11172328278852</v>
+        <v>17.20904538939694</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>27.4959021678328</v>
+        <v>29.40349861714434</v>
       </c>
       <c r="D61" t="n">
-        <v>17.05768840209544</v>
+        <v>16.99521700597268</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>27.85375652353306</v>
+        <v>30.37889718246594</v>
       </c>
       <c r="D62" t="n">
-        <v>15.54646387577773</v>
+        <v>16.44437443405951</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.44597295536805</v>
+        <v>29.65062406873385</v>
       </c>
       <c r="D63" t="n">
-        <v>17.36400321284041</v>
+        <v>16.57358412878106</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>24.91528960078084</v>
+        <v>27.85940672264795</v>
       </c>
       <c r="D64" t="n">
-        <v>16.78025070443669</v>
+        <v>17.58013272317798</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.17246033173711</v>
+        <v>26.08055745038238</v>
       </c>
       <c r="D65" t="n">
-        <v>15.78662866536051</v>
+        <v>17.41840161739465</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.25281334489393</v>
+        <v>26.52184223962573</v>
       </c>
       <c r="D66" t="n">
-        <v>15.6239714497967</v>
+        <v>16.16283802607049</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.98735913375596</v>
+        <v>26.30918879404236</v>
       </c>
       <c r="D67" t="n">
-        <v>17.68879944865879</v>
+        <v>16.28015295097598</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>21.38901489481005</v>
+        <v>22.34566324746271</v>
       </c>
       <c r="D68" t="n">
-        <v>19.3827677737012</v>
+        <v>16.6525434976609</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>20.03452660292289</v>
+        <v>23.50360712039538</v>
       </c>
       <c r="D69" t="n">
-        <v>17.1190453447866</v>
+        <v>17.72056070712665</v>
       </c>
     </row>
   </sheetData>
